--- a/quize 3_11.xlsx
+++ b/quize 3_11.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Abdul_Rehman\AI data  github ar\github quiz\HTS_AI_Course_Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBCA047E-ADA5-4107-9305-E542CCFA2995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
   <si>
     <t>H T S  Artificial Intelligence course / Quiz and Answer</t>
   </si>
@@ -22,7 +41,19 @@
     <t xml:space="preserve">Questions </t>
   </si>
   <si>
-    <t>Answers</t>
+    <r>
+      <t xml:space="preserve">                   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    ['Hello', ' World!']</t>
+    </r>
   </si>
   <si>
     <r>
@@ -32,17 +63,774 @@
     <r>
       <rPr>
         <sz val="16"/>
-        <color rgb="FFff0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">What is the main difference between a list and a tuple? </t>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">What symbol is used to separate a dictionary's key-value pairs?
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    A colon (:) is used to separate a dictionary's key-value pairs.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">      Output: b
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> empty_list = [ ]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> To repeat a set of instructions a specific number of times.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">     Sets    ,  ( )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   To evaluate a condition and execute a block of code 
+   based on its result.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {key: value}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> **</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF002060"/>
+        <rFont val="Roboto"/>
+        <family val="2"/>
+      </rPr>
+      <t>A variable passed to the function when it is defined</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">  for loop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To perform a specific task</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> def function_name():</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>To return a value from the function</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">  To analyze the sentiment of a given text.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> for loop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   openai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  It generates a sequence of numbers.</t>
+  </si>
+  <si>
+    <t>Median , Mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Data cleaning</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 25th and 75th percentiles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ( -0.9 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  correlation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Median</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+  What is the five number summary of a data set?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Minimum, maximum, median, first quartile, third quartile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+  What is the value of the median in the following five number summary?
+  Min = 12, Q1 = 15, Median = , Q3 = 21, Max = 24
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ Showing correlations between variables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Predicting categorical labels or classes for new data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  One-Hot Encoding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+  Which of the following methods is commonly used for splitting data into    
+  training and testing sets?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  train_test_split()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To generalize well to new, unseen data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  When a model performs well on the training data but 
+  poorly on new, unseen data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  A weak positive correlation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Categorical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To evaluate the model's performance on unseen data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Dependent variable</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">• A list is ordered, while a tuple is unordered.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">• A list can be modified, while a tuple cannot be modified   
+   once created
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">• </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">A list can store multiple data types, while a tuple can
+   only 
+   store one data type.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>• There is no difference between a list and a tuple.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Options </t>
+  </si>
+  <si>
+    <t>Right Answers</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A list can be modified, while a tuple cannot be modified once   created.</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>All of the above</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+• Instructions
+• Problem Solving
+• Language 
+• All of the above</t>
+  </si>
+  <si>
+    <t>• Variables are like containers that hold information during   
+   a program's execution.
+• Variables are special commands used to control the flow 
+   of a program.
+• Variables are colorful elements that make a program 
+   visually appealing. 
+• Variables are tiny bugs that can cause errors in a 
+   program.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Variables are like containers that hold information 
+  during a program's execution.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+• The process of creating sets of instructions for a 
+    computer
+• The process of creating computer hardware
+•The process of solving problems manually
+• The process of automating tasks using computer 
+   software</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The process of creating sets of instructions for 
+  a computer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+• Start with a letter or underscore (_).
+• Can include letters, numbers, and underscores.
+• Avoid using reserved words
+• can start with numbers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  can start with numbers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+• Int
+•Float
+• String
+• char</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Float</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+• The variable that is manipulated in the study
+• The variable that is used as a control in the study
+• The variable that is the outcome or response being 
+   predicted
+• The variable that is used to predict the other variables
+• The variable that represents the mean of the dataset
+• None of the above.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  The variable that is the outcome or response
+  being predicted</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The spread of data around the mean.</t>
+  </si>
+  <si>
+    <t>• The spread of data around the mean
+• The central tendency of the data
+• The strength of the relationship between two variables
+• The difference between the maximum and minimum values of the data
+• The correlation coefficient of the data
+• None of the above.</t>
+  </si>
+  <si>
+    <t>• Lists are mutable, while tuples are immutable
+• Tuples are mutable, while lists are immutable.
+• Lists can store only numeric data types, while tuples can store any data 
+   type.
+• Tuples have a fixed length, while lists can grow or shrink dynamically.
+• Lists are ordered, while tuples are unordered.
+• None of the above.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lists are mutable, while tuples are immutable</t>
+  </si>
+  <si>
+    <t>• IQR = (Q3 - Q1) / 2
+• IQR = Q3 - Q1
+• IQR = (Q3 + Q1) / 2
+• IQR = (Q3 + Q2) / 2
+• IQR = Q3 - Q2
+• None of the above.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+  What are the key elements of programming?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+  Which of the following best describes variables in programming?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+  What is programming?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Which of the following is not true for naming the variable?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+  What is the type of -2.5 ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+  What is the Interquartile Range (IQR) used to measure?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  What is the key difference between a list and a tuple in Python?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  How is the IQR calculated in a dataset?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  What does GPT stand for in the context of language models?</t>
+  </si>
+  <si>
+    <t>• General Processing Toolkit
+• Generic Processing Technology
+• Generative Pre-trained Transformer
+• Global Parsing Technique
+• Generalized Parsing Tokenizer
+• None of the above.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Generative Pre-trained Transformer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  IQR = Q3 - Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Which step of text preprocessing involves converting words to 
+  their base or root form?</t>
+  </si>
+  <si>
+    <t>• Tokenization
+• Lemmatization
+• Stopword Removal
+• Lowercasing
+• Embedding
+• None of the above.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Lemmatization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  What is the primary objective of Reinforcement Learning in Machine 
+   Learning?</t>
+  </si>
+  <si>
+    <t>• To classify data into different categories or classes.
+• To discover hidden patterns and structures in unlabeled 
+    data.
+• To make predictions based on past data.
+• To optimize an agent's behavior in an environment to 
+   achieve a goal
+• To create a model that can work with streaming data.
+• None of the above.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To optimize an agent's behavior in an environment
+  to achieve a goal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Which data structure in Python uses square brackets to enclose its elements?</t>
+  </si>
+  <si>
+    <t>• Lists
+• Tuples
+• Dictionaries
+• Sets
+• Arrays
+• None of the above.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Lists</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+  In the context of NLP, what are stop words?</t>
+  </si>
+  <si>
+    <t>• Words with a positive sentiment used for sentiment analysis.
+• Words that need to be translated when performing machine translation.
+• Words that appear frequently in the text and are usually removed during 
+    preprocessing.
+• Words that are often used in Named Entity Recognition tasks.
+• Words used for creating word embeddings in language models.
+• None of the above.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  What are tokens in NLP?</t>
+  </si>
+  <si>
+    <t>• Special characters used to represent emotions in text.
+• Sequential chunks of characters or words used for language processing.
+• Words that have a unique representation in a language model.
+• Linguistic structures used in syntactic analysis.
+• Single characters in a text, including spaces and punctuation marks.
+• None of the above.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Sequential chunks of characters or words used for     
+   language processing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Words that appear frequently in the text and are   
+   usually removed during preprocessing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  You are a researcher working on creating an advanced AI system for a   
+  robotic arm to perform complex tasks. The arm will improve gradually. Use  
+  your knowledge of machine learning 
+  techniques to answer the following question.</t>
+  </si>
+  <si>
+    <t>• Supervised Learning
+•  Unsupervised Learning
+• Reinforcement Learning
+• Deep Learning
+• Transfer Learning
+• Semi-Supervised Learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Reinforcement Learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  You are a data analyst working for a real estate company. Your
+  task is to analyze the prices of houses in a particular neighborhood. 
+  You have collected the prices of 11 houses in that area. Let's use this 
+ data to answer the following questions related to Interquartile Range (IQR)
+ Data: [300, 450, 500, 550, 600, 650, 750, 800, 900, 950, 1000] 
+  What is the third quartile (Q3) of the given data set?</t>
+  </si>
+  <si>
+    <t>• 550
+•  650
+• 750
+• 800
+• 900
+• 950</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+  Hassan studies maths and physics. Your job is to find the relationship
+  between his math and physics performance. He scored grades, 
+  and you calculated the correlation between the two subjects,
+  which exhibits a strong positive correlation. What can you say 
+  about his performance in math and physics exams?</t>
+  </si>
+  <si>
+    <t>• a) When his math scores increase, his physics scores also 
+   increase significantly
+•  g) He is Performing Bad in both subjects.
+•  c) his math and physics scores have a weak relationship.
+•  d) his math and physics scores are unrelated.
+• e) both a and f
+•  f) He is performing equally in both subjects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ You are a scientist conducting a research study to investigate
+  the effects of different factors on plant growth. You collect 
+  data from several experimental setups, each representing
+  different conditions for plant growth. Use your knowledge
+  of dependent and independent variables to answer the 
+  following question.
+  In the research study on plant growth, you measure the 
+  height of the plants and record various environmental 
+  conditions. What are the dependent and
+  independent variables in this study? </t>
+  </si>
+  <si>
+    <t>• Dependent Variable: Plant Height, Independent 
+    Variable: Environmental Conditions
+•  Dependent Variable: Environmental Conditions,    
+     Independent Variable: Plant Height
+• Both Plant Height and Environmental Conditions are   
+   Dependent Variables
+• Both Plant Height and Environmental Conditions are   
+    Independent Variables
+•  Plant Height is the Dependent Variable, but 
+     Environmental Conditions are neither Dependent nor 
+     Independent Variables
+• Environmental Conditions is the Dependent Variable, 
+   but Plant Height is neither Dependent nor Independent 
+    Variables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Dependent Variable: Plant Height, Independent     
+  Variable: Environmental Conditions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+  You are a data scientist working on a research study to identify 
+  criminals based on their history. Your primary goal is to predict the 
+  criminals and observe their activities to avoid any criminal incident 
+  in the city. What class label would you assign to criminal and non criminal. 
+  Also you have to identify which model you would use for prediction.?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Negative (Criminal), positive (non-criminal) Linear regression(Model)
+•  Negative (non-criminal), positive (criminal) Linear regression (Model)
+• Negative (non-criminal), positive (criminal) Logistic regression (Model)
+• Negative (Criminal), positive (non-criminal) Logistic regression(Model)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Negative (non-criminal), positive (criminal) Logistic
+   regression (Model)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  e) both a and f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  
+  You have a large dataset of customer transactions, and you
+  want to identify groups of similar customers based on their
+  buying behavior without using any labeled data. Which type of
+  learning is most appropriate for this task?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+•  a) Reinforcement Learning
+•  b) Supervised Learning
+•  c) Unsupervised Learning
+•  d) None of the above 
+•  Both a) and c)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  c) Unsupervised Learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  
+  You are analyzing the performance of students in a challenging mathematics     
+  competition.You want to determine if there is a significant linear relationship   
+  between the number of hours they  spent studying and their final scores.  
+  Which statistical method should you use to quantify the strength of this   
+  relationship?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+•  a) Linear Regression
+•  b) Correlation
+•  c) Logistic Regression
+•  d) None of the above
+•  Both a) and b)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  b) Correlation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   
+  You are comparing the performance of two regression models that predict   
+  stock prices. You want to measure the average squared difference between 
+  the predicted values and the actual values to assess their accuracy. Which 
+  evaluation metric should you use?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+•  a) Interquartile Range (IQR)
+•  b) Mean Square Error
+•  d) Feature Scaling
+• e) None of the above
+•  f) Root Mean Square Error
+•  Both b and f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+  You have developed a binary classification model to predict whether a 
+  customer will make a purchase or not. After evaluating the model on a test 
+  dataset, you found that it correctly predicted 87% of the instances. What
+  is this evaluation metric called?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+•  Interquartile Range (IQR)
+•  Mean Square Error
+•  Accuracy
+•  Feature Scaling
+•  None of the above
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Accuracy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   
+  An AI agent learns to play a computer game by trial and error, receiving 
+   rewards or penalties based on its actions. Which type of learning is this?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+•  a) Reinforcement Learning
+•  b) Supervised Learning
+•  c) Unsupervised Learning
+•  d) None of the above
+•  Both a) and b)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  a) Reinforcement Learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  
+  You are studying the survival rates of patients with a particular medical
+  condition based on various clinical factors. Your goal is to build a model to 
+  predict the probability of survival for future patients. Which type of 
+  regression analysis should you use?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+•  a) Linear Regression
+•  b) Correlation
+•  c) Logistic Regression
+•  d) None of the above
+•  Both a) and c)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  c) Logistic Regression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  b) Mean Square Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+  In regression analysis, which variable is considered the dependent variable?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">What is the main difference between a list and a tuple? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -59,39 +847,13 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF002060"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A list can be modified, while a tuple cannot be modified once      created.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve"> 
   </t>
     </r>
     <r>
       <rPr>
         <sz val="16"/>
-        <color rgb="FFff0000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -103,7 +865,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -114,61 +876,13 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">                   </t>
+      <t xml:space="preserve">
+</t>
     </r>
     <r>
       <rPr>
         <sz val="16"/>
-        <color rgb="FF002060"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">    ['Hello', ' World!']</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFff0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">What symbol is used to separate a dictionary's key-value pairs?
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF002060"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">    A colon (:) is used to separate a dictionary's key-value pairs.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFff0000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -182,7 +896,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -193,10 +907,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">      Output: b
-</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">
 </t>
@@ -204,71 +914,36 @@
     <r>
       <rPr>
         <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFff0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Which of the following options shows the correct syntax to create an empty
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  Which of the following options shows the correct syntax to create an empty
   list in Python?
      </t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">        </t>
+      <t xml:space="preserve">
+  </t>
     </r>
     <r>
       <rPr>
         <sz val="16"/>
-        <color rgb="FF002060"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> empty_list = [ ]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFff0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>What is the purpose of using loops in programming?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">What is the purpose of using loops in programming? 
 </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -281,38 +956,13 @@
   </si>
   <si>
     <r>
-      <t/>
+      <t xml:space="preserve"> 
+</t>
     </r>
     <r>
       <rPr>
         <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF002060"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> To repeat a set of instructions a specific number of times.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFff0000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -323,7 +973,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -336,9 +986,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">     Sets    ,  ( )</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">
   What is the primary purpose of an if statement in programming? 
@@ -347,7 +994,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -359,7 +1006,7 @@
     <r>
       <rPr>
         <sz val="16"/>
-        <color rgb="FFff0000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -370,7 +1017,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -381,7 +1028,7 @@
     <r>
       <rPr>
         <sz val="16"/>
-        <color rgb="FFff0000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -390,10 +1037,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">   To evaluate a condition and execute a block of code 
-   based on its result.</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">
   How are key-value pairs represented in Python dictionaries?
@@ -402,7 +1045,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -413,16 +1056,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> {key: value}</t>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
     <r>
       <rPr>
         <sz val="16"/>
-        <color rgb="FFff0000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -434,7 +1071,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -445,28 +1082,13 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF002060"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> **</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">
   </t>
     </r>
     <r>
       <rPr>
         <sz val="16"/>
-        <color rgb="FFff0000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -477,7 +1099,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -493,49 +1115,35 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">    </t>
+      <t xml:space="preserve">
+  Which loop is better suited when the number of iterations is known in advance?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  When the number of iterations is known in advance, a for loop is better suited than a while loop.</t>
     </r>
     <r>
       <rPr>
         <sz val="16"/>
-        <color rgb="FF002060"/>
-        <rFont val="Roboto"/>
-        <family val="2"/>
-      </rPr>
-      <t>A variable passed to the function when it is defined</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-  Which loop is better suited when the number of iterations is known in advance?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  When the number of iterations is known in advance, a for loop is better suited than a while loop.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFff0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -551,9 +1159,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">  for loop</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">
   What is the purpose of a function in Python?
@@ -562,7 +1167,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -574,9 +1179,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">  To perform a specific task</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">
   How do you define a function in Python?
@@ -585,7 +1187,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -597,9 +1199,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> def function_name():</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">  
   What is the purpose of the "return" statement in a function?
@@ -608,7 +1207,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -627,21 +1226,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF002060"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>To return a value from the function</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">
   What is the purpose of Openai API's sentiment analysis feature?
 </t>
@@ -649,7 +1233,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -660,7 +1244,7 @@
     <r>
       <rPr>
         <sz val="16"/>
-        <color rgb="FFff0000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -668,9 +1252,6 @@
       <t xml:space="preserve">
   </t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">  To analyze the sentiment of a given text.</t>
   </si>
   <si>
     <r>
@@ -682,7 +1263,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -694,7 +1275,7 @@
     <r>
       <rPr>
         <sz val="16"/>
-        <color rgb="FFff0000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -704,7 +1285,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -716,9 +1297,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> for loop</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">
   What is the purpose of an API key in API authentication?
@@ -727,7 +1305,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -738,9 +1316,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">   It provides a unique identifier for API requests.</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve"> 
 </t>
@@ -748,29 +1323,19 @@
     <r>
       <rPr>
         <sz val="16"/>
-        <color rgb="FFff0000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">  Which Python library can be used to interact with OpenAI API for sentiment   
-   analysis?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
+   analysis?
    </t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -780,9 +1345,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">   openai</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">
   What is the purpose of the range() function in a for loop?
@@ -791,7 +1353,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -802,7 +1364,7 @@
     <r>
       <rPr>
         <sz val="16"/>
-        <color rgb="FFff0000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -813,7 +1375,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -827,7 +1389,7 @@
     <r>
       <rPr>
         <sz val="16"/>
-        <color rgb="FFff0000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -835,9 +1397,6 @@
       <t xml:space="preserve">
    </t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">  It generates a sequence of numbers.</t>
   </si>
   <si>
     <r>
@@ -848,7 +1407,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -858,9 +1417,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">  Interquartile Range (IQR)</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">
   Outliers are data points that:
@@ -869,7 +1425,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -877,10 +1433,6 @@
       <t xml:space="preserve">  Outliers are data points that deviate significantly from other observations in 
   the  dataset. They are unusually far away from the norm of the data distribution.</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">  Deviate significantly from other data points in the dataset
-</t>
   </si>
   <si>
     <r>
@@ -891,7 +1443,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -899,9 +1451,6 @@
       <t xml:space="preserve"> The interquartile range (IQR) measures the range or spread of the middle 50% of   values in a dataset, 
   between the 1st quartile (25th percentile) and the 3rd quartile (75th percentile).</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">  The range of the middle 50% of the dataset</t>
   </si>
   <si>
     <r>
@@ -912,7 +1461,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -926,9 +1475,6 @@
     </r>
   </si>
   <si>
-    <t>Median , Mode</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">
   Which of the following is a step in data preprocessing during exploratory data 
@@ -938,7 +1484,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -952,9 +1498,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">  Data cleaning</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">
   The value that appears most frequently in a dataset is known as ?
@@ -963,7 +1506,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -974,9 +1517,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> Mode</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">  
   In box plots, the upper and lower edges of the box represent which values, 
@@ -986,7 +1526,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -996,9 +1536,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> 25th and 75th percentiles</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">
   Which of the following correlation coefficients indicates the strongest linear 
@@ -1008,16 +1545,13 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">  A correlation coefficient of -1 indicates the strongest possible linear relationship between two variables.</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">  ( -0.9 )</t>
   </si>
   <si>
     <r>
@@ -1029,7 +1563,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1039,9 +1573,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">  correlation</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">
   Which measure of central tendency is the middle value in a sorted dataset?
@@ -1050,16 +1581,13 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">  The measure of central tendency that represents the middle value in a sorted dataset is the median.</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">  Median</t>
   </si>
   <si>
     <r>
@@ -1070,7 +1598,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1082,24 +1610,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">
-  Quantitative data / Categorical data
-   Categorical and numerical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-  What is the five number summary of a data set?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Minimum, maximum, median, first quartile, third quartile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-  What is the value of the median in the following five number summary?
-  Min = 12, Q1 = 15, Median = , Q3 = 21, Max = 24
-</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">
   Which of the following is an example of categorical data?
@@ -1108,7 +1618,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1121,9 +1631,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">  Gender</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">
   What is the primary purpose of a heatmap in data visualization?
@@ -1132,7 +1639,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1144,10 +1651,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">
- Showing correlations between variables</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">
   What is classification in machine learning?
@@ -1156,7 +1659,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1168,9 +1671,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">  Predicting categorical labels or classes for new data</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">
   Which of the following is a common encoding technique used for handling 
@@ -1180,7 +1680,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1195,7 +1695,7 @@
     <r>
       <rPr>
         <sz val="16"/>
-        <color rgb="FFff0000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1205,17 +1705,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">  One-Hot Encoding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-  Which of the following methods is commonly used for splitting data into    
-  training and testing sets?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  train_test_split()</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">
   What is the goal of a machine learning model during the training phase?
@@ -1224,7 +1713,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1234,9 +1723,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">  To generalize well to new, unseen data</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">
   What does the term "overfitting" mean in machine learning?
@@ -1245,7 +1731,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1256,10 +1742,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">  When a model performs well on the training data but 
-  poorly on new, unseen data</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">
   What does the correlation value of 0.075 indicate?
@@ -1268,7 +1750,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1278,9 +1760,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">  A weak positive correlation</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">
   In logistic regression, the dependent variable is ?
@@ -1289,7 +1768,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1301,7 +1780,7 @@
     <r>
       <rPr>
         <sz val="16"/>
-        <color rgb="FFff0000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1310,16 +1789,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">  Categorical</t>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
     <r>
       <rPr>
         <sz val="16"/>
-        <color rgb="FFff0000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1330,7 +1803,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1341,7 +1814,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1351,9 +1824,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">  Independent variables are the outcome of the study</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">
 </t>
@@ -1361,7 +1831,7 @@
     <r>
       <rPr>
         <sz val="16"/>
-        <color rgb="FFff0000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1373,7 +1843,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1381,9 +1851,6 @@
       <t xml:space="preserve">  The purpose of the testing set when splitting a dataset into training and testing sets is to evaluate the 
   model's performance on new, unseen data.</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">  To evaluate the model's performance on unseen data</t>
   </si>
   <si>
     <r>
@@ -1394,7 +1861,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1405,15 +1872,47 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">  Dependent variable</t>
+    <t xml:space="preserve">   It authorizes access to the API resources.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Deviate significantly from other data points in the 
+   dataset
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  The spread of the dataset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+  Both a) and d)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">•  a) Qualitative and quantitative
+•  b) Discrete and continuous
+•  c) Nominal and ordinal
+•  d) Categorical and numerical
+•   Both a) and d)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Dependent variables are pre-processed by the
+  researcher.</t>
+  </si>
+  <si>
+    <t>• Dependent variables are also known as features.
+• Independent variables are the outcome of the study.
+• Dependent variables are pre-processed by the researcher. 
+• Independent variables are also known as response variables.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1429,19 +1928,13 @@
     </font>
     <font>
       <sz val="28"/>
-      <color rgb="FFc00000"/>
-      <name val="Arial Black"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="28"/>
       <color rgb="FF385724"/>
       <name val="Arial Black"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="24"/>
-      <color rgb="FF4472c4"/>
+      <color rgb="FF4472C4"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1459,7 +1952,7 @@
     </font>
     <font>
       <sz val="16"/>
-      <color rgb="FFff0000"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1480,6 +1973,107 @@
       <color rgb="FF002060"/>
       <name val="Roboto"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1509,80 +2103,108 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+  <cellXfs count="31">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1593,10 +2215,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1634,71 +2256,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1726,7 +2348,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1749,11 +2371,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -1762,13 +2384,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1778,7 +2400,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1787,7 +2409,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1796,7 +2418,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1804,10 +2426,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1872,537 +2494,915 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="20" width="6.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="21" width="100.14785714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="20" width="83.57642857142856" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="6" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="95.7109375" style="30" customWidth="1"/>
+    <col min="3" max="3" width="71" customWidth="1"/>
+    <col min="4" max="4" width="65.5703125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="45">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26"/>
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="35.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5" t="s">
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="180.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26">
+        <v>1</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="171.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26">
         <v>2</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="146.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="B4" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26">
         <v>3</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="B5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="104.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="7" t="s">
+    <row r="6" spans="1:4" ht="200.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="26">
+        <v>4</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="9" t="s">
+    </row>
+    <row r="7" spans="1:4" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="26">
+        <v>5</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="68.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="10" t="s">
+    <row r="8" spans="1:4" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="26">
+        <v>6</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="11" t="s">
+    </row>
+    <row r="9" spans="1:4" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="26">
+        <v>7</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="200.25">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="7" t="s">
+    <row r="10" spans="1:4" ht="187.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="26">
+        <v>8</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="12" t="s">
+    </row>
+    <row r="11" spans="1:4" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="26">
+        <v>9</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="91.5">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="7" t="s">
+    <row r="12" spans="1:4" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="26">
+        <v>10</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="9" t="s">
+    </row>
+    <row r="13" spans="1:4" ht="191.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="26">
+        <v>11</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="146.25">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="10" t="s">
+    <row r="14" spans="1:4" ht="192.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="26">
+        <v>12</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="13" t="s">
+    </row>
+    <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="26">
+        <v>13</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="156">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="10" t="s">
+    <row r="16" spans="1:4" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="26">
+        <v>14</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="14" t="s">
+    </row>
+    <row r="17" spans="1:4" ht="234.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="26">
+        <v>15</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="187.5">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="15" t="s">
+    <row r="18" spans="1:4" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="26">
+        <v>16</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="12" t="s">
+    </row>
+    <row r="19" spans="1:4" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="26">
+        <v>17</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="139.5">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="15" t="s">
+    <row r="20" spans="1:4" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="26">
+        <v>18</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="26">
         <v>19</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="B21" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="26">
         <v>20</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="110.25">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="10" t="s">
+      <c r="B22" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="26">
         <v>21</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="B23" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="26">
         <v>22</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="191.25">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="10" t="s">
+      <c r="B24" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="26">
         <v>23</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="B25" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="26">
         <v>24</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="192.75">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="15" t="s">
+      <c r="B26" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="177" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="26">
         <v>25</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="B27" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="26">
         <v>26</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="15" t="s">
+      <c r="B28" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="26">
         <v>27</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="B29" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="26">
         <v>28</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="118.5">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="15" t="s">
+      <c r="B30" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="26">
         <v>29</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="B31" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="26">
         <v>30</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="234.75">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="15" t="s">
+      <c r="B32" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="26">
         <v>31</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="B33" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="26">
         <v>32</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="112.5">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="15" t="s">
+      <c r="B34" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="26">
         <v>33</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="B35" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="26">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="153.75">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="15" t="s">
+      <c r="B36" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="26">
         <v>35</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="B37" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="26">
         <v>36</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="114.75">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="15" t="s">
+      <c r="B38" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="26">
         <v>37</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="B39" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="26">
         <v>38</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="108.75">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="10" t="s">
+      <c r="B40" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="26">
         <v>39</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="B41" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="26">
         <v>40</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="153.75">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" s="15" t="s">
+      <c r="B42" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="26">
         <v>41</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="B43" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="26">
         <v>42</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="93.75">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" s="15" t="s">
+      <c r="B44" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="205.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="26">
         <v>43</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="B45" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="26">
         <v>44</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="90.75">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" s="15" t="s">
+      <c r="B46" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="26">
         <v>45</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="B47" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="12">
         <v>46</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="97.5">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" s="15" t="s">
+      <c r="B48" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D48" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="14" t="s">
+    </row>
+    <row r="49" spans="1:4" ht="164.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="26">
+        <v>47</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="26">
         <v>48</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="142.5">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" s="15" t="s">
+      <c r="B50" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" s="21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="26">
         <v>49</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="B51" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="12">
         <v>50</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="177">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" s="15" t="s">
+      <c r="B52" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="188.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="26">
         <v>51</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="B53" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53" s="21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="180.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="26">
         <v>52</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="101.25">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" s="15" t="s">
+      <c r="B54" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D54" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="26">
         <v>53</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="B55" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="12">
         <v>54</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="105">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" s="15" t="s">
+      <c r="B56" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="26">
         <v>55</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="B57" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="26">
         <v>56</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="93">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" s="15" t="s">
+      <c r="B58" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="198" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="26">
         <v>57</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="B59" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D59" s="21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="159" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="12">
         <v>58</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="104.25">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" s="15" t="s">
+      <c r="B60" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D60" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="171.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="26">
         <v>59</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="B61" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D61" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="26">
         <v>60</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="96">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" s="15" t="s">
+      <c r="B62" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D62" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="26">
         <v>61</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="B63" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D63" s="18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="202.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="12">
         <v>62</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="100.5">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" s="15" t="s">
+      <c r="B64" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D64" s="25">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="225" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="26">
         <v>63</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="B65" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D65" s="21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="307.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="26">
         <v>64</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="66.75">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" s="15" t="s">
+      <c r="B66" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C66" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D66" s="21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="26">
         <v>65</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="B67" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C67" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D67" s="21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="12">
         <v>66</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="74.25">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" s="15" t="s">
+      <c r="B68" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D68" s="18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="26">
         <v>67</v>
       </c>
-      <c r="C35" s="14">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="135">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" s="15" t="s">
+      <c r="B69" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D69" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="200.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="26">
         <v>68</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="B70" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D70" s="18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="26">
         <v>69</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="124.5">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37" s="15" t="s">
+      <c r="B71" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D71" s="18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="147" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="26">
         <v>70</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="B72" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D72" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="26">
         <v>71</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="116.25">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="151.5">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="76.5">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="90">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="140.25">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="100.5">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="99.75">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="92.25">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="132.75">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="114">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="206.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="4"/>
-    </row>
+      <c r="B73" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C73" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D73" s="18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="226.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:4" ht="192.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:4" ht="189" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:4" ht="225" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:4" ht="225" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
